--- a/azota_assets/medias/excel_add_students_exp_v4.xlsx
+++ b/azota_assets/medias/excel_add_students_exp_v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenvantuan/Pictures/azt_img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AE4259-9131-664F-A5D1-D5C1947AC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA67D41-1B7A-9A4E-945C-A03D5A3FA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -105,19 +105,16 @@
     <t>Mã học sinh</t>
   </si>
   <si>
-    <t>*Mã học sinh: có thể để trống</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
+    <t>*Mã học sinh: có thể để trống, có thể nhập chữ và số</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>0D58</t>
   </si>
 </sst>
 </file>
@@ -564,16 +561,17 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
     <col min="7" max="1027" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,14 +585,14 @@
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1"/>
@@ -610,13 +608,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>15</v>
@@ -640,16 +638,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -670,13 +668,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
@@ -700,13 +698,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -729,7 +727,7 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="G6" s="7" t="s">
         <v>24</v>
       </c>

--- a/azota_assets/medias/excel_add_students_exp_v4.xlsx
+++ b/azota_assets/medias/excel_add_students_exp_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenvantuan/Pictures/azt_img/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThuyTrang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA67D41-1B7A-9A4E-945C-A03D5A3FA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E4F99-C039-476F-8AC4-CC37DC98D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,13 +108,13 @@
     <t>001</t>
   </si>
   <si>
-    <t>*Mã học sinh: có thể để trống, có thể nhập chữ và số</t>
-  </si>
-  <si>
     <t>A003</t>
   </si>
   <si>
     <t>0D58</t>
+  </si>
+  <si>
+    <t>*Mã học sinh: Nhập chữ, chữ và số hoặc có thể bỏ trống</t>
   </si>
 </sst>
 </file>
@@ -561,21 +561,21 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="1027" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="1027" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="I1" s="4"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -657,7 +657,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -717,7 +717,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/azota_assets/medias/excel_add_students_exp_v4.xlsx
+++ b/azota_assets/medias/excel_add_students_exp_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThuyTrang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenvantuan/Pictures/azt_img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E4F99-C039-476F-8AC4-CC37DC98D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AE4259-9131-664F-A5D1-D5C1947AC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -105,16 +105,19 @@
     <t>Mã học sinh</t>
   </si>
   <si>
+    <t>*Mã học sinh: có thể để trống</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>0D58</t>
-  </si>
-  <si>
-    <t>*Mã học sinh: Nhập chữ, chữ và số hoặc có thể bỏ trống</t>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
   </si>
 </sst>
 </file>
@@ -561,21 +564,20 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="1027" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="1027" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,19 +587,19 @@
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -608,13 +610,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>15</v>
@@ -627,7 +629,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -638,16 +640,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -657,7 +659,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -668,13 +670,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
@@ -687,7 +689,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -698,13 +700,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -717,7 +719,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -727,7 +729,7 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
